--- a/biology/Zoologie/Anabate_à_col_blanc/Anabate_à_col_blanc.xlsx
+++ b/biology/Zoologie/Anabate_à_col_blanc/Anabate_à_col_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_col_blanc</t>
+          <t>Anabate_à_col_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabazenops fuscus
-L'Anabate à col blanc[1] (Anabazenops fuscus) est une espèce d'oiseaux de la famille des Furnariidae. Cette espèce vit dans la forêt atlantique, dans le Sud-Est du Brésil.
+L'Anabate à col blanc (Anabazenops fuscus) est une espèce d'oiseaux de la famille des Furnariidae. Cette espèce vit dans la forêt atlantique, dans le Sud-Est du Brésil.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_col_blanc</t>
+          <t>Anabate_à_col_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Anabazenops fuscus a été décrite pour la première fois en 1816 par l'ornithologue français Louis-Pierre Vieillot (1748-1830) sous le protonyme Sitta fusca[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Anabazenops fuscus a été décrite pour la première fois en 1816 par l'ornithologue français Louis-Pierre Vieillot (1748-1830) sous le protonyme Sitta fusca.
 </t>
         </is>
       </c>
